--- a/references/PH1800 PV1800 EP1800 PV3500 EP3500 RS485 Modbud RTU communication Protocol 1.4.15.xlsx
+++ b/references/PH1800 PV1800 EP1800 PV3500 EP3500 RS485 Modbud RTU communication Protocol 1.4.15.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09CB7BAF-03C2-43DF-B069-3F7677334B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikost\source\repos\home-inverter-grafana-monitor\references\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8117F35-C913-4D00-8B2D-A44AF267A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="443" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="483" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="414">
   <si>
     <t>01301100</t>
   </si>
@@ -1897,6 +1902,9 @@
   </si>
   <si>
     <t>Parameter error</t>
+  </si>
+  <si>
+    <t>hopefully</t>
   </si>
 </sst>
 </file>
@@ -2659,7 +2667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2671,33 +2679,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2739,7 +2747,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,7 +2759,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2761,10 +2768,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2773,7 +2780,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2827,9 +2834,6 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2854,24 +2858,21 @@
     <xf numFmtId="9" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2890,9 +2891,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2929,40 +2927,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,19 +2966,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3001,17 +2996,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3408,1842 +3397,1378 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="10" width="4.625" style="72" customWidth="1"/>
+    <col min="3" max="10" width="4.625" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72">
+      <c r="C1" s="70">
         <v>0</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="70">
         <v>0</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="70">
         <v>1101</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="70">
         <v>0</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="72">
         <v>1001</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="96"/>
-      <c r="B4" s="73"/>
-      <c r="E4" s="88" t="s">
+      <c r="B4" s="40"/>
+      <c r="E4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="70">
         <v>0</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="72">
         <v>1001</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="96"/>
-      <c r="B6" s="73"/>
-      <c r="E6" s="88" t="s">
+      <c r="B6" s="40"/>
+      <c r="E6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <v>0</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <v>1101</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <v>0</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="70">
         <v>1101</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="70">
         <v>1111</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="70">
         <v>0</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="70">
         <v>1101</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="85" t="s">
+      <c r="G9" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="70">
         <v>1</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="85" t="s">
+      <c r="J10" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="70">
         <v>1</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="70">
         <v>1111</v>
       </c>
-      <c r="I11" s="85" t="s">
+      <c r="I11" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="73"/>
-      <c r="B12" s="96">
+      <c r="A12" s="40"/>
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="81" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="70">
         <v>1</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="70">
         <v>1000</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="73"/>
-      <c r="B14" s="96">
+      <c r="A14" s="40"/>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="70">
         <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="70">
         <v>1</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="70">
         <v>1000</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="70">
         <v>1111</v>
       </c>
-      <c r="I15" s="85" t="s">
+      <c r="I15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="81" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="4.5" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="70">
         <v>0</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="70">
         <v>1100</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="74">
         <v>1111</v>
       </c>
-      <c r="F19" s="91" t="s">
+      <c r="F19" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="85" t="s">
+      <c r="I19" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="70">
         <v>0</v>
       </c>
-      <c r="D20" s="72">
+      <c r="D20" s="70">
         <v>1100</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="74">
         <v>1111</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="85" t="s">
+      <c r="I20" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="88" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="70">
         <v>0</v>
       </c>
-      <c r="D22" s="72">
+      <c r="D22" s="70">
         <v>1000</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="72">
+      <c r="F22" s="70">
         <v>1010</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="G22" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="72">
+      <c r="H22" s="70">
         <v>1010</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="70">
         <v>1111</v>
       </c>
-      <c r="J22" s="72">
+      <c r="J22" s="70">
         <v>1111</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="70">
         <v>0</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="70">
         <v>1000</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="70">
         <v>1010</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="70">
         <v>1011</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="70">
         <v>1111</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="70">
         <v>1111</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <v>0</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <v>1000</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="70">
         <v>1010</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="70">
         <v>1111</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="70">
         <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="9" customHeight="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="74"/>
-      <c r="E25" s="75"/>
+      <c r="B25" s="71"/>
+      <c r="E25" s="72"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="70">
         <v>0</v>
       </c>
-      <c r="D26" s="72">
+      <c r="D26" s="70">
         <v>1100</v>
       </c>
-      <c r="E26" s="75">
+      <c r="E26" s="72">
         <v>1111</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="85" t="s">
+      <c r="H26" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="85" t="s">
+      <c r="J26" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="70">
         <v>0</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="70">
         <v>1100</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="72">
         <v>1111</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="85" t="s">
+      <c r="I27" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="85" t="s">
+      <c r="J27" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="96"/>
-      <c r="B28" s="78"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="79"/>
+      <c r="B28" s="75"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="70">
         <v>0</v>
       </c>
-      <c r="D29" s="72">
+      <c r="D29" s="70">
         <v>1000</v>
       </c>
-      <c r="E29" s="75">
+      <c r="E29" s="72">
         <v>1111</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="72">
+      <c r="H29" s="70">
         <v>1010</v>
       </c>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="85" t="s">
+      <c r="J29" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="70">
         <v>0</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="72">
         <v>1111</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="F30" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="72">
+      <c r="H30" s="70">
         <v>1011</v>
       </c>
-      <c r="I30" s="85" t="s">
+      <c r="I30" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="85" t="s">
+      <c r="J30" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="70">
         <v>0</v>
       </c>
-      <c r="D31" s="72">
+      <c r="D31" s="70">
         <v>1100</v>
       </c>
-      <c r="E31" s="75">
+      <c r="E31" s="72">
         <v>1111</v>
       </c>
-      <c r="F31" s="91" t="s">
+      <c r="F31" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="72">
+      <c r="H31" s="70">
         <v>1000</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="85" t="s">
+      <c r="J31" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="70">
         <v>0</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="70">
         <v>1000</v>
       </c>
-      <c r="E32" s="75">
+      <c r="E32" s="72">
         <v>1111</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="85" t="s">
+      <c r="G32" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="72">
+      <c r="H32" s="70">
         <v>1011</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="85" t="s">
+      <c r="J32" s="81" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="70">
         <v>0</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="72">
         <v>1111</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="70">
         <v>1100</v>
       </c>
-      <c r="I33" s="85" t="s">
+      <c r="I33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="85" t="s">
+      <c r="J33" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="70">
         <v>0</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="70">
         <v>1100</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="72">
         <v>1111</v>
       </c>
-      <c r="F34" s="91" t="s">
+      <c r="F34" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="72">
+      <c r="H34" s="70">
         <v>1001</v>
       </c>
-      <c r="I34" s="85" t="s">
+      <c r="I34" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="85" t="s">
+      <c r="J34" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35" s="96"/>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="70">
         <v>9</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="72">
+      <c r="F35" s="70">
         <v>1101</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="72" t="s">
+      <c r="H35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="72" t="s">
+      <c r="I35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="96"/>
-      <c r="X35" s="96"/>
-      <c r="Y35" s="96"/>
-      <c r="Z35" s="96"/>
-      <c r="AA35" s="96"/>
-      <c r="AB35" s="96"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="72">
+      <c r="C36" s="70">
         <v>9</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="70">
         <v>3</v>
       </c>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="72" t="s">
+      <c r="J36" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="72" t="s">
+      <c r="K36" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="96"/>
-      <c r="Y36" s="96"/>
-      <c r="Z36" s="96"/>
-      <c r="AA36" s="96"/>
-      <c r="AB36" s="96"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="72">
+      <c r="C37" s="70">
         <v>9</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="72">
+      <c r="G37" s="70">
         <v>0</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="72" t="s">
+      <c r="K37" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="96"/>
-      <c r="X37" s="96"/>
-      <c r="Y37" s="96"/>
-      <c r="Z37" s="96"/>
-      <c r="AA37" s="96"/>
-      <c r="AB37" s="96"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="72">
+      <c r="C38" s="70">
         <v>9</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="72" t="s">
+      <c r="F38" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="72">
+      <c r="G38" s="70">
         <v>9</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I38" s="72">
+      <c r="I38" s="70">
         <v>0</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="72" t="s">
+      <c r="K38" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="72">
+      <c r="C39" s="70">
         <v>9</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="72">
+      <c r="H39" s="70">
         <v>3</v>
       </c>
-      <c r="I39" s="72" t="s">
+      <c r="I39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="96"/>
-      <c r="Y39" s="96"/>
-      <c r="Z39" s="96"/>
-      <c r="AA39" s="96"/>
-      <c r="AB39" s="96"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40" s="96"/>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="72">
+      <c r="F40" s="70">
         <v>1010</v>
       </c>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
-      <c r="X40" s="96"/>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="96"/>
-      <c r="AA40" s="96"/>
-      <c r="AB40" s="96"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41" s="96"/>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="70">
         <v>1101</v>
       </c>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
-      <c r="X41" s="96"/>
-      <c r="Y41" s="96"/>
-      <c r="Z41" s="96"/>
-      <c r="AA41" s="96"/>
-      <c r="AB41" s="96"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42" s="96"/>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="87" t="s">
+      <c r="T42" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="96"/>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="96"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="87" t="s">
+      <c r="AB42" s="83" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="96"/>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="87" t="s">
+      <c r="T43" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
-      <c r="X43" s="96"/>
-      <c r="Y43" s="96"/>
-      <c r="Z43" s="96"/>
-      <c r="AA43" s="96"/>
-      <c r="AB43" s="87" t="s">
+      <c r="AB43" s="83" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="96"/>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="85" t="s">
+      <c r="E44" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="87" t="s">
+      <c r="T44" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="X44" s="87" t="s">
+      <c r="X44" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="96"/>
-      <c r="AA44" s="96"/>
-      <c r="AB44" s="87" t="s">
+      <c r="AB44" s="83" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="96"/>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="70">
         <v>1111</v>
       </c>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="96"/>
-      <c r="X45" s="96"/>
-      <c r="Y45" s="96"/>
-      <c r="Z45" s="96"/>
-      <c r="AA45" s="96"/>
-      <c r="AB45" s="96"/>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="96"/>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="85" t="s">
+      <c r="E46" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="87" t="s">
+      <c r="T46" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="96"/>
-      <c r="X46" s="87" t="s">
+      <c r="X46" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="87" t="s">
+      <c r="AB46" s="83" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="96"/>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="85" t="s">
+      <c r="E47" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="87" t="s">
+      <c r="P47" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="96"/>
-      <c r="X47" s="96"/>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="96"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="96"/>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="72">
+      <c r="E48" s="70">
         <v>1111</v>
       </c>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="87" t="s">
+      <c r="P48" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="87" t="s">
+      <c r="T48" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="U48" s="96"/>
-      <c r="V48" s="96"/>
-      <c r="W48" s="96"/>
-      <c r="X48" s="96"/>
-      <c r="Y48" s="96"/>
-      <c r="Z48" s="96"/>
-      <c r="AA48" s="96"/>
-      <c r="AB48" s="87" t="s">
+      <c r="AB48" s="83" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:28">
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="72">
+      <c r="D49" s="70">
         <v>1000</v>
       </c>
-      <c r="E49" s="85" t="s">
+      <c r="E49" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="87" t="s">
+      <c r="P49" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="87" t="s">
+      <c r="T49" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="U49" s="96"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="96"/>
-      <c r="X49" s="96"/>
-      <c r="Y49" s="96"/>
-      <c r="Z49" s="96"/>
-      <c r="AA49" s="96"/>
-      <c r="AB49" s="87" t="s">
+      <c r="AB49" s="83" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:28">
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="70">
         <v>1000</v>
       </c>
-      <c r="E50" s="72">
+      <c r="E50" s="70">
         <v>1111</v>
       </c>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="87" t="s">
+      <c r="P50" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="87" t="s">
+      <c r="T50" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="96"/>
-      <c r="V50" s="96"/>
-      <c r="W50" s="96"/>
-      <c r="X50" s="96"/>
-      <c r="Y50" s="96"/>
-      <c r="Z50" s="96"/>
-      <c r="AA50" s="96"/>
-      <c r="AB50" s="87" t="s">
+      <c r="AB50" s="83" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:28">
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96" t="s">
+      <c r="L51" t="s">
         <v>72</v>
       </c>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="72" t="s">
+      <c r="P51" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96" t="s">
+      <c r="T51" t="s">
         <v>60</v>
       </c>
-      <c r="U51" s="96"/>
-      <c r="V51" s="96"/>
-      <c r="W51" s="96"/>
-      <c r="X51" s="72" t="s">
+      <c r="X51" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="Y51" s="96"/>
-      <c r="Z51" s="96"/>
-      <c r="AA51" s="96"/>
-      <c r="AB51" s="76"/>
+      <c r="AB51" s="73"/>
     </row>
     <row r="52" spans="2:28">
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="72">
+      <c r="E52" s="70">
         <v>1010</v>
       </c>
-      <c r="K52" s="96"/>
-      <c r="L52" s="87" t="s">
+      <c r="L52" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="87" t="s">
+      <c r="P52" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="80"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="87" t="s">
+      <c r="T52" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="96"/>
-      <c r="X52" s="87" t="s">
+      <c r="X52" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="Y52" s="80"/>
-      <c r="Z52" s="80"/>
-      <c r="AA52" s="96"/>
-      <c r="AB52" s="87" t="s">
+      <c r="AB52" s="83" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="2:28">
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="72">
+      <c r="E53" s="70">
         <v>1011</v>
       </c>
-      <c r="K53" s="96"/>
-      <c r="L53" s="87" t="s">
+      <c r="L53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="87" t="s">
+      <c r="P53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="80"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="87" t="s">
+      <c r="T53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="U53" s="80"/>
-      <c r="V53" s="80"/>
-      <c r="W53" s="96"/>
-      <c r="X53" s="87" t="s">
+      <c r="X53" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="Y53" s="80"/>
-      <c r="Z53" s="80"/>
-      <c r="AA53" s="96"/>
-      <c r="AB53" s="87" t="s">
+      <c r="AB53" s="83" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="2:28">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="72">
+      <c r="E54" s="70">
         <v>1011</v>
       </c>
-      <c r="K54" s="96"/>
-      <c r="L54" s="87" t="s">
+      <c r="L54" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="87" t="s">
+      <c r="P54" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="80"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="87" t="s">
+      <c r="T54" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="U54" s="80"/>
-      <c r="V54" s="80"/>
-      <c r="W54" s="96"/>
-      <c r="X54" s="87" t="s">
+      <c r="X54" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="Y54" s="80"/>
-      <c r="Z54" s="80"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="87" t="s">
+      <c r="AB54" s="83" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:28">
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="72">
+      <c r="E55" s="70">
         <v>1100</v>
       </c>
-      <c r="K55" s="96"/>
-      <c r="L55" s="87" t="s">
+      <c r="L55" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="87" t="s">
+      <c r="P55" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="Q55" s="80"/>
-      <c r="R55" s="80"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="87" t="s">
+      <c r="T55" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="U55" s="80"/>
-      <c r="V55" s="80"/>
-      <c r="W55" s="96"/>
-      <c r="X55" s="96"/>
-      <c r="Y55" s="80"/>
-      <c r="Z55" s="80"/>
-      <c r="AA55" s="96"/>
-      <c r="AB55" s="87" t="s">
+      <c r="AB55" s="83" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:28">
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="85" t="s">
+      <c r="C56" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
-      <c r="X56" s="96"/>
-      <c r="Y56" s="96"/>
-      <c r="Z56" s="96"/>
-      <c r="AA56" s="96"/>
-      <c r="AB56" s="96"/>
     </row>
     <row r="57" spans="2:28">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="72">
+      <c r="C57" s="70">
         <v>10</v>
       </c>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
-      <c r="X57" s="96"/>
-      <c r="Y57" s="96"/>
-      <c r="Z57" s="96"/>
-      <c r="AA57" s="96"/>
-      <c r="AB57" s="96"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
     </row>
     <row r="58" spans="2:28">
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="72">
+      <c r="C58" s="70">
         <v>1010</v>
       </c>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="96"/>
-      <c r="U58" s="96"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
-      <c r="X58" s="96"/>
-      <c r="Y58" s="96"/>
-      <c r="Z58" s="96"/>
-      <c r="AA58" s="96"/>
-      <c r="AB58" s="96"/>
     </row>
     <row r="59" spans="2:28">
-      <c r="B59" s="96" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="96"/>
-      <c r="X59" s="96"/>
-      <c r="Y59" s="96"/>
-      <c r="Z59" s="96"/>
-      <c r="AA59" s="96"/>
-      <c r="AB59" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="41" type="noConversion"/>
@@ -5267,17 +4792,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="36.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="65.75" customWidth="1"/>
@@ -5304,112 +4829,112 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A3" s="44">
+      <c r="A3" s="43">
         <v>20000</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="101"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <v>20001</v>
       </c>
-      <c r="B4" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="101"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>20002</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A6" s="44">
+      <c r="A6" s="43">
         <v>20003</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A7" s="44">
+      <c r="A7" s="43">
         <v>20004</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="101"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A8" s="44">
+      <c r="A8" s="43">
         <v>20005</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="101"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>20006</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -5424,2147 +4949,2186 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="44">
+      <c r="A11" s="43">
         <v>20009</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="94">
         <v>16384</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A12" s="44">
+      <c r="A12" s="43">
         <v>20010</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="94">
         <v>16384</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A13" s="44">
+      <c r="A13" s="43">
         <v>20011</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="43">
         <v>20012</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="94">
         <v>16384</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A15" s="44">
+      <c r="A15" s="43">
         <v>20013</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="94">
         <v>16384</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A16" s="44">
+      <c r="A16" s="43">
         <v>20014</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="94">
         <v>16384</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A17" s="44">
+      <c r="A17" s="43">
         <v>20015</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="94">
         <v>16384</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A18" s="44">
+      <c r="A18" s="43">
         <v>20016</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="94">
         <v>16384</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="39" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A19" s="46">
+    <row r="19" spans="1:6" s="38" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A19" s="45">
         <v>20101</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="39" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A20" s="46">
+    <row r="20" spans="1:6" s="38" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A20" s="45">
         <v>20102</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="39" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A21" s="46">
+    <row r="21" spans="1:6" s="38" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A21" s="45">
         <v>20103</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="39" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A22" s="46">
+    <row r="22" spans="1:6" s="38" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A22" s="45">
         <v>20104</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="40" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A23" s="49">
+    <row r="23" spans="1:6" s="39" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A23" s="48">
         <v>20108</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="40" customFormat="1" ht="72.95" customHeight="1">
-      <c r="A24" s="49">
+    <row r="24" spans="1:6" s="39" customFormat="1" ht="72.95" customHeight="1">
+      <c r="A24" s="48">
         <v>20109</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="52" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="40" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A25" s="49">
+    <row r="25" spans="1:6" s="39" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A25" s="48">
         <v>20111</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="54" t="s">
+      <c r="E25" s="48"/>
+      <c r="F25" s="53" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="40" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A26" s="49">
+    <row r="26" spans="1:6" s="39" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A26" s="48">
         <v>20112</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:6" s="40" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A27" s="49">
+      <c r="E26" s="48"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6" s="39" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A27" s="48">
         <v>20113</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="40" customFormat="1" ht="24">
-      <c r="A28" s="49">
+    <row r="28" spans="1:6" s="39" customFormat="1" ht="24">
+      <c r="A28" s="48">
         <v>20118</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="40" customFormat="1" ht="24" customHeight="1">
-      <c r="A29" s="49">
+    <row r="29" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A29" s="48">
         <v>20119</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="24">
-      <c r="A30" s="49">
+    <row r="30" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A30" s="48">
+        <v>20120</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="51"/>
+    </row>
+    <row r="31" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A31" s="48">
+        <v>20121</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="56">
+        <v>25</v>
+      </c>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="48">
+        <v>20122</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="49"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="56">
+        <v>27</v>
+      </c>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="48">
+        <v>20123</v>
+      </c>
+      <c r="B33" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="56">
+        <v>28.3</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="39" customFormat="1" ht="24" customHeight="1">
+      <c r="A34" s="48">
+        <v>20124</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="56">
+        <v>24</v>
+      </c>
+      <c r="F34" s="51"/>
+    </row>
+    <row r="35" spans="1:6" s="39" customFormat="1" ht="24">
+      <c r="A35" s="48">
         <v>20125</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B35" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E35" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" spans="1:6" s="40" customFormat="1" ht="24">
-      <c r="A31" s="49">
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:6" s="39" customFormat="1" ht="24">
+      <c r="A36" s="48">
         <v>20127</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D36" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E36" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" spans="1:6" s="40" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A32" s="49">
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" spans="1:6" s="39" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A37" s="48">
         <v>20128</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B37" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C37" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D37" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E37" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:6" s="40" customFormat="1" ht="24">
-      <c r="A33" s="49">
+      <c r="F37" s="53"/>
+    </row>
+    <row r="38" spans="1:6" s="39" customFormat="1" ht="24">
+      <c r="A38" s="48">
         <v>20132</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B38" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C38" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D38" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E38" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="54"/>
-    </row>
-    <row r="34" spans="1:6" s="40" customFormat="1" ht="24">
-      <c r="A34" s="49">
+      <c r="F38" s="53"/>
+    </row>
+    <row r="39" spans="1:6" s="39" customFormat="1" ht="24">
+      <c r="A39" s="48">
         <v>20142</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B39" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C39" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="49" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:6" s="40" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A35" s="49">
+      <c r="F39" s="53"/>
+    </row>
+    <row r="40" spans="1:6" s="39" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A40" s="48">
         <v>20143</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B40" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D40" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="54"/>
-    </row>
-    <row r="36" spans="1:6" s="40" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A36" s="49">
+      <c r="E40" s="48"/>
+      <c r="F40" s="53"/>
+    </row>
+    <row r="41" spans="1:6" s="39" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A41" s="48">
         <v>20144</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B41" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C41" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D41" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="54"/>
-    </row>
-    <row r="37" spans="1:6" s="41" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A37" s="103">
+      <c r="E41" s="48"/>
+      <c r="F41" s="53"/>
+    </row>
+    <row r="42" spans="1:6" s="40" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A42" s="96">
         <v>20213</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B42" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D42" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E42" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="59"/>
-    </row>
-    <row r="38" spans="1:6" s="41" customFormat="1" ht="25.5">
-      <c r="A38" s="103">
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" s="40" customFormat="1" ht="25.5">
+      <c r="A43" s="96">
         <v>20214</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B43" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="103" t="s">
+      <c r="E43" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="59"/>
-    </row>
-    <row r="39" spans="1:6" ht="58.5" customHeight="1">
-      <c r="A39" s="11" t="s">
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A44" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="112" t="s">
+    <row r="45" spans="1:6">
+      <c r="A45" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="113"/>
-    </row>
-    <row r="41" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A41" s="44">
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A46" s="43">
         <v>25201</v>
       </c>
-      <c r="B41" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B46" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D46" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="103"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" ht="24">
-      <c r="A42" s="45">
+      <c r="E46" s="96"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" ht="24">
+      <c r="A47" s="44">
         <v>25202</v>
       </c>
-      <c r="B42" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="23" t="s">
+      <c r="B47" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" ht="36" customHeight="1">
-      <c r="A43" s="45">
+      <c r="E47" s="96"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" ht="36" customHeight="1">
+      <c r="A48" s="44">
         <v>25203</v>
       </c>
-      <c r="B43" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="23" t="s">
+      <c r="B48" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D48" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="103"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="44">
+      <c r="E48" s="96"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="43">
         <v>25204</v>
       </c>
-      <c r="B44" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="21" t="s">
+      <c r="B49" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="44">
+      <c r="D49" s="18"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="43">
         <v>25205</v>
       </c>
-      <c r="B45" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="21" t="s">
+      <c r="B50" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="103"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="44">
+      <c r="E50" s="96"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="43">
         <v>25206</v>
       </c>
-      <c r="B46" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="21" t="s">
+      <c r="B51" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="103"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="44">
+      <c r="E51" s="96"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="43">
         <v>25207</v>
       </c>
-      <c r="B47" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="21" t="s">
+      <c r="B52" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="103"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="44">
+      <c r="E52" s="96"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="43">
         <v>25208</v>
       </c>
-      <c r="B48" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="21" t="s">
+      <c r="B53" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="103"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="44">
+      <c r="E53" s="96"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="43">
         <v>25209</v>
       </c>
-      <c r="B49" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="B54" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="103"/>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="44">
+      <c r="E54" s="96"/>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="43">
         <v>25210</v>
       </c>
-      <c r="B50" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="B55" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="103"/>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="44">
+      <c r="E55" s="96"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="43">
         <v>25211</v>
       </c>
-      <c r="B51" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="21" t="s">
+      <c r="B56" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E51" s="103"/>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="44">
+      <c r="E56" s="96"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="43">
         <v>25212</v>
       </c>
-      <c r="B52" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="B57" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D57" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="103"/>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="44">
+      <c r="E57" s="96"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="43">
         <v>25213</v>
       </c>
-      <c r="B53" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="21" t="s">
+      <c r="B58" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D58" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="103" t="s">
+      <c r="E58" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="44">
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="43">
         <v>25214</v>
       </c>
-      <c r="B54" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="21" t="s">
+      <c r="B59" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="E59" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="44">
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="43">
         <v>25215</v>
       </c>
-      <c r="B55" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="21" t="s">
+      <c r="B60" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="103"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" s="42" customFormat="1">
-      <c r="A56" s="61">
+      <c r="E60" s="96"/>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" s="41" customFormat="1">
+      <c r="A61" s="59">
         <v>25216</v>
       </c>
-      <c r="B56" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="62" t="s">
+      <c r="B61" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D61" s="61">
         <v>0.01</v>
       </c>
-      <c r="E56" s="64" t="s">
+      <c r="E61" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="F56" s="65"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="44">
+      <c r="F61" s="63"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="43">
         <v>25217</v>
       </c>
-      <c r="B57" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="21" t="s">
+      <c r="B62" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E57" s="103"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="44">
+      <c r="E62" s="96"/>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="43">
         <v>25218</v>
       </c>
-      <c r="B58" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="B63" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="103"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="44">
+      <c r="E63" s="96"/>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="43">
         <v>25219</v>
       </c>
-      <c r="B59" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="21" t="s">
+      <c r="B64" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E59" s="103"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="44">
+      <c r="E64" s="96"/>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="43">
         <v>25220</v>
       </c>
-      <c r="B60" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="21" t="s">
+      <c r="B65" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="44">
+      <c r="D65" s="18"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="43">
         <v>25221</v>
       </c>
-      <c r="B61" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="21" t="s">
+      <c r="B66" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E61" s="103"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="44">
+      <c r="E66" s="96"/>
+      <c r="F66" s="19"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="43">
         <v>25222</v>
       </c>
-      <c r="B62" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="B67" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D67" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="103"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="44">
+      <c r="E67" s="96"/>
+      <c r="F67" s="19"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="43">
         <v>25223</v>
       </c>
-      <c r="B63" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="21" t="s">
+      <c r="B68" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D68" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="103"/>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="44">
+      <c r="E68" s="96"/>
+      <c r="F68" s="19"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="43">
         <v>25224</v>
       </c>
-      <c r="B64" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="21" t="s">
+      <c r="B69" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="44">
+      <c r="D69" s="18"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="19"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="43">
         <v>25225</v>
       </c>
-      <c r="B65" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="21" t="s">
+      <c r="B70" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="103" t="s">
+      <c r="D70" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="103" t="s">
+      <c r="E70" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="44">
+      <c r="F70" s="19"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="43">
         <v>25226</v>
       </c>
-      <c r="B66" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="21" t="s">
+      <c r="B71" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="103" t="s">
+      <c r="D71" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="103" t="s">
+      <c r="E71" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="44">
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="43">
         <v>25227</v>
       </c>
-      <c r="B67" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="44">
-        <v>25228</v>
-      </c>
-      <c r="B68" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="44">
-        <v>25229</v>
-      </c>
-      <c r="B69" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="66"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="44">
-        <v>25230</v>
-      </c>
-      <c r="B70" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="44">
-        <v>25231</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="44">
-        <v>25232</v>
-      </c>
-      <c r="B72" s="103" t="s">
+      <c r="B72" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="103"/>
+      <c r="E72" s="96"/>
       <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="44">
+      <c r="A73" s="43">
+        <v>25228</v>
+      </c>
+      <c r="B73" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="43">
+        <v>25229</v>
+      </c>
+      <c r="B74" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="43">
+        <v>25230</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="43">
+        <v>25231</v>
+      </c>
+      <c r="B76" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="43">
+        <v>25232</v>
+      </c>
+      <c r="B77" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="43">
         <v>25233</v>
       </c>
-      <c r="B73" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="21" t="s">
+      <c r="B78" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D78" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E73" s="103"/>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="44">
+      <c r="E78" s="96"/>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="43">
         <v>25234</v>
       </c>
-      <c r="B74" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="21" t="s">
+      <c r="B79" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D79" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="44">
+      <c r="E79" s="96"/>
+      <c r="F79" s="19"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="43">
         <v>25235</v>
       </c>
-      <c r="B75" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="21" t="s">
+      <c r="B80" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E75" s="103"/>
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="44">
+      <c r="E80" s="96"/>
+      <c r="F80" s="19"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="43">
         <v>25236</v>
       </c>
-      <c r="B76" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="21" t="s">
+      <c r="B81" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="44">
+      <c r="D81" s="18"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="43">
         <v>25237</v>
       </c>
-      <c r="B77" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="21" t="s">
+      <c r="B82" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="103"/>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="44">
-        <v>25238</v>
-      </c>
-      <c r="B78" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E78" s="103"/>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="44">
-        <v>25239</v>
-      </c>
-      <c r="B79" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E79" s="103"/>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="44">
-        <v>25240</v>
-      </c>
-      <c r="B80" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E80" s="103"/>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="44">
-        <v>25241</v>
-      </c>
-      <c r="B81" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E81" s="103"/>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="44">
-        <v>25242</v>
-      </c>
-      <c r="B82" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E82" s="103"/>
+      <c r="E82" s="96"/>
       <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="44">
+      <c r="A83" s="43">
+        <v>25238</v>
+      </c>
+      <c r="B83" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" s="96"/>
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="43">
+        <v>25239</v>
+      </c>
+      <c r="B84" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="96"/>
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="43">
+        <v>25240</v>
+      </c>
+      <c r="B85" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="96"/>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="43">
+        <v>25241</v>
+      </c>
+      <c r="B86" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="96"/>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="43">
+        <v>25242</v>
+      </c>
+      <c r="B87" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="96"/>
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="43">
         <v>25243</v>
       </c>
-      <c r="B83" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="21" t="s">
+      <c r="B88" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="19"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="44">
+      <c r="D88" s="18"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="19"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="43">
         <v>25244</v>
       </c>
-      <c r="B84" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="21" t="s">
+      <c r="B89" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="19"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="44">
+      <c r="D89" s="18"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="19"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="43">
         <v>25245</v>
       </c>
-      <c r="B85" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="21" t="s">
+      <c r="B90" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D90" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="103"/>
-      <c r="F85" s="19"/>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A86" s="44">
+      <c r="E90" s="96"/>
+      <c r="F90" s="19"/>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A91" s="43">
         <v>25246</v>
       </c>
-      <c r="B86" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="21" t="s">
+      <c r="B91" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D91" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E86" s="103"/>
-      <c r="F86" s="19"/>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A87" s="44">
+      <c r="E91" s="96"/>
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A92" s="43">
         <v>25247</v>
       </c>
-      <c r="B87" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="21" t="s">
+      <c r="B92" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E87" s="103"/>
-      <c r="F87" s="19"/>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A88" s="44">
+      <c r="E92" s="96"/>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A93" s="43">
         <v>25248</v>
       </c>
-      <c r="B88" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="21" t="s">
+      <c r="B93" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E88" s="103"/>
-      <c r="F88" s="19"/>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A89" s="44">
+      <c r="E93" s="96"/>
+      <c r="F93" s="19"/>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A94" s="43">
         <v>25249</v>
       </c>
-      <c r="B89" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="21" t="s">
+      <c r="B94" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D94" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="19"/>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A90" s="44">
+      <c r="E94" s="96"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A95" s="43">
         <v>25250</v>
       </c>
-      <c r="B90" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="21" t="s">
+      <c r="B95" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D95" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E90" s="103"/>
-      <c r="F90" s="19"/>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A91" s="44">
+      <c r="E95" s="96"/>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A96" s="43">
         <v>25251</v>
       </c>
-      <c r="B91" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="21" t="s">
+      <c r="B96" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D96" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E91" s="103"/>
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A92" s="44">
+      <c r="E96" s="96"/>
+      <c r="F96" s="19"/>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A97" s="43">
         <v>25252</v>
       </c>
-      <c r="B92" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="21" t="s">
+      <c r="B97" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D97" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="103"/>
-      <c r="F92" s="19"/>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A93" s="44">
+      <c r="E97" s="96"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A98" s="43">
         <v>25253</v>
       </c>
-      <c r="B93" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="21" t="s">
+      <c r="B98" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D98" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="103"/>
-      <c r="F93" s="19"/>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A94" s="44">
+      <c r="E98" s="96"/>
+      <c r="F98" s="19"/>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A99" s="43">
         <v>25254</v>
       </c>
-      <c r="B94" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="21" t="s">
+      <c r="B99" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D99" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E94" s="103"/>
-      <c r="F94" s="19"/>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A95" s="44">
+      <c r="E99" s="96"/>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A100" s="43">
         <v>25255</v>
       </c>
-      <c r="B95" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="21" t="s">
+      <c r="B100" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D100" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E95" s="103"/>
-      <c r="F95" s="19"/>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A96" s="44">
+      <c r="E100" s="96"/>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A101" s="43">
         <v>25256</v>
       </c>
-      <c r="B96" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="21" t="s">
+      <c r="B101" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E96" s="103"/>
-      <c r="F96" s="19"/>
-    </row>
-    <row r="97" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A97" s="44">
+      <c r="E101" s="96"/>
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A102" s="43">
         <v>25257</v>
       </c>
-      <c r="B97" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="21" t="s">
+      <c r="B102" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D102" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E97" s="103"/>
-      <c r="F97" s="19"/>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A98" s="44">
+      <c r="E102" s="96"/>
+      <c r="F102" s="19"/>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A103" s="43">
         <v>25258</v>
       </c>
-      <c r="B98" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="21" t="s">
+      <c r="B103" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D103" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E98" s="103"/>
-      <c r="F98" s="19"/>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A99" s="44">
+      <c r="E103" s="96"/>
+      <c r="F103" s="19"/>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A104" s="43">
         <v>25259</v>
       </c>
-      <c r="B99" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="21" t="s">
+      <c r="B104" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D104" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E99" s="103"/>
-      <c r="F99" s="19"/>
-    </row>
-    <row r="100" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A100" s="44">
+      <c r="E104" s="96"/>
+      <c r="F104" s="19"/>
+    </row>
+    <row r="105" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A105" s="43">
         <v>25260</v>
       </c>
-      <c r="B100" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="21" t="s">
+      <c r="B105" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D105" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="E100" s="103"/>
-      <c r="F100" s="19"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="44">
+      <c r="E105" s="96"/>
+      <c r="F105" s="19"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="43">
         <v>25261</v>
       </c>
-      <c r="B101" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="21" t="s">
+      <c r="B106" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="103" t="s">
+      <c r="D106" s="18"/>
+      <c r="E106" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="F101" s="19"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="44">
+      <c r="F106" s="19"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="43">
         <v>25262</v>
       </c>
-      <c r="B102" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="21" t="s">
+      <c r="B107" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="103" t="s">
+      <c r="D107" s="18"/>
+      <c r="E107" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="F102" s="19"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="44">
+      <c r="F107" s="19"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="43">
         <v>25263</v>
       </c>
-      <c r="B103" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" s="21" t="s">
+      <c r="B108" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="103" t="s">
+      <c r="D108" s="18"/>
+      <c r="E108" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="19"/>
-    </row>
-    <row r="104" spans="1:6" ht="12" customHeight="1">
-      <c r="A104" s="44">
+      <c r="F108" s="19"/>
+    </row>
+    <row r="109" spans="1:6" ht="12" customHeight="1">
+      <c r="A109" s="43">
         <v>25264</v>
       </c>
-      <c r="B104" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="21" t="s">
+      <c r="B109" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="19"/>
-    </row>
-    <row r="105" spans="1:6" ht="24">
-      <c r="A105" s="44">
+      <c r="D109" s="18"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="19"/>
+    </row>
+    <row r="110" spans="1:6" ht="24">
+      <c r="A110" s="43">
         <v>25265</v>
       </c>
-      <c r="B105" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="21" t="s">
+      <c r="B110" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="103" t="s">
+      <c r="D110" s="18"/>
+      <c r="E110" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="F105" s="19"/>
-    </row>
-    <row r="106" spans="1:6" ht="24">
-      <c r="A106" s="44">
+      <c r="F110" s="19"/>
+    </row>
+    <row r="111" spans="1:6" ht="24">
+      <c r="A111" s="43">
         <v>25266</v>
       </c>
-      <c r="B106" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="21" t="s">
+      <c r="B111" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="103" t="s">
+      <c r="D111" s="18"/>
+      <c r="E111" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="F106" s="19"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="44">
+      <c r="F111" s="19"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="43">
         <v>25267</v>
       </c>
-      <c r="B107" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="21" t="s">
+      <c r="B112" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="19"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="44">
+      <c r="D112" s="18"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="19"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="43">
         <v>25268</v>
       </c>
-      <c r="B108" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" s="21" t="s">
+      <c r="B113" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="19"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="44">
+      <c r="D113" s="18"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="19"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="43">
         <v>25269</v>
       </c>
-      <c r="B109" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="21" t="s">
+      <c r="B114" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="19"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="44">
+      <c r="D114" s="18"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="43">
         <v>25270</v>
       </c>
-      <c r="B110" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="21" t="s">
+      <c r="B115" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="19"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="44">
+      <c r="D115" s="18"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="43">
         <v>25271</v>
       </c>
-      <c r="B111" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" s="102" t="s">
+      <c r="B116" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D116" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="103"/>
-      <c r="F111" s="19"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A112" s="44">
+      <c r="E116" s="96"/>
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A117" s="43">
         <v>25272</v>
       </c>
-      <c r="B112" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" s="102" t="s">
+      <c r="B117" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D117" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E112" s="103"/>
-      <c r="F112" s="19"/>
-    </row>
-    <row r="113" spans="1:6" s="43" customFormat="1">
-      <c r="A113" s="45">
+      <c r="E117" s="96"/>
+      <c r="F117" s="19"/>
+    </row>
+    <row r="118" spans="1:6" s="42" customFormat="1">
+      <c r="A118" s="44">
         <v>25273</v>
       </c>
-      <c r="B113" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" s="23" t="s">
+      <c r="B118" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D118" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E113" s="20"/>
-      <c r="F113" s="25"/>
-    </row>
-    <row r="114" spans="1:6" s="43" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A114" s="45">
+      <c r="E118" s="20"/>
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119" spans="1:6" s="42" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A119" s="44">
         <v>25274</v>
       </c>
-      <c r="B114" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="23" t="s">
+      <c r="B119" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D119" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="25"/>
-    </row>
-    <row r="115" spans="1:6" ht="36">
-      <c r="A115" s="45">
+      <c r="E119" s="20"/>
+      <c r="F119" s="25"/>
+    </row>
+    <row r="120" spans="1:6" ht="36">
+      <c r="A120" s="44">
         <v>25275</v>
       </c>
-      <c r="B115" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" s="23" t="s">
+      <c r="B120" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="D120" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E115" s="20"/>
-      <c r="F115" s="25"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="45">
+      <c r="E120" s="20"/>
+      <c r="F120" s="25"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="44">
         <v>25276</v>
       </c>
-      <c r="B116" s="103"/>
-      <c r="C116" s="23" t="s">
+      <c r="B121" s="96"/>
+      <c r="C121" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="25"/>
-    </row>
-    <row r="117" spans="1:6" s="43" customFormat="1">
-      <c r="A117" s="45">
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="25"/>
+    </row>
+    <row r="122" spans="1:6" s="42" customFormat="1">
+      <c r="A122" s="44">
         <v>25277</v>
       </c>
-      <c r="B117" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117" s="23" t="s">
+      <c r="B122" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D122" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="25"/>
-    </row>
-    <row r="118" spans="1:6" s="43" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A118" s="45">
+      <c r="E122" s="20"/>
+      <c r="F122" s="25"/>
+    </row>
+    <row r="123" spans="1:6" s="42" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A123" s="44">
         <v>25278</v>
       </c>
-      <c r="B118" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" s="23" t="s">
+      <c r="B123" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D123" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="25" t="s">
+      <c r="E123" s="23"/>
+      <c r="F123" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="45">
+    <row r="124" spans="1:6">
+      <c r="A124" s="44">
         <v>25279</v>
       </c>
-      <c r="B119" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="23" t="s">
+      <c r="B124" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D119" s="67" t="s">
+      <c r="D124" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="25" t="s">
+      <c r="E124" s="23"/>
+      <c r="F124" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="114" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="B123" s="114"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="68" t="s">
+      <c r="B128" s="109"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="B124" s="68" t="s">
+      <c r="B129" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="C124" s="96"/>
-      <c r="D124" s="96"/>
-      <c r="E124" s="96"/>
-      <c r="F124" s="96"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="68">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="66">
         <v>0</v>
       </c>
-      <c r="B125" s="69" t="s">
+      <c r="B130" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C125" s="70"/>
-      <c r="D125" s="96"/>
-      <c r="E125" s="96"/>
-      <c r="F125" s="96"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="68">
+      <c r="C130" s="68"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="66">
         <v>1</v>
       </c>
-      <c r="B126" s="69" t="s">
+      <c r="B131" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="68">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="66">
         <v>2</v>
       </c>
-      <c r="B127" s="69" t="s">
+      <c r="B132" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="C127" s="96"/>
-      <c r="D127" s="96"/>
-      <c r="E127" s="96"/>
-      <c r="F127" s="96"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="68">
+    </row>
+    <row r="133" spans="1:3" ht="27">
+      <c r="A133" s="66">
         <v>3</v>
       </c>
-      <c r="B128" s="69" t="s">
+      <c r="B133" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="C128" s="96"/>
-      <c r="D128" s="96"/>
-      <c r="E128" s="96"/>
-      <c r="F128" s="96"/>
-    </row>
-    <row r="129" spans="1:3" ht="27">
-      <c r="A129" s="68">
+    </row>
+    <row r="134" spans="1:3" ht="27">
+      <c r="A134" s="66">
         <v>4</v>
       </c>
-      <c r="B129" s="69" t="s">
+      <c r="B134" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="96"/>
-    </row>
-    <row r="130" spans="1:3" ht="27">
-      <c r="A130" s="68">
+    </row>
+    <row r="135" spans="1:3" ht="27">
+      <c r="A135" s="66">
         <v>5</v>
       </c>
-      <c r="B130" s="69" t="s">
+      <c r="B135" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="96"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="68">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="66">
         <v>6</v>
       </c>
-      <c r="B131" s="69" t="s">
+      <c r="B136" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C131" s="96"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="68">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="66">
         <v>7</v>
       </c>
-      <c r="B132" s="69" t="s">
+      <c r="B137" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="C132" s="96"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="68">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="66">
         <v>8</v>
       </c>
-      <c r="B133" s="69" t="s">
+      <c r="B138" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C133" s="96"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="68">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="66">
         <v>9</v>
       </c>
-      <c r="B134" s="69" t="s">
+      <c r="B139" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C134" s="96"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="68">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="66">
         <v>10</v>
       </c>
-      <c r="B135" s="69" t="s">
+      <c r="B140" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="96"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="68">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="66">
         <v>11</v>
       </c>
-      <c r="B136" s="69" t="s">
+      <c r="B141" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C136" s="96"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="68">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="66">
         <v>12</v>
       </c>
-      <c r="B137" s="69" t="s">
+      <c r="B142" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="96"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="68">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="66">
         <v>13</v>
       </c>
-      <c r="B138" s="69" t="s">
+      <c r="B143" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C138" s="96"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="68">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="66">
         <v>14</v>
       </c>
-      <c r="B139" s="69" t="s">
+      <c r="B144" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C139" s="96"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="68">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="66">
         <v>15</v>
       </c>
-      <c r="B140" s="69" t="s">
+      <c r="B145" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C140" s="96"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="114" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="B142" s="114"/>
-      <c r="C142" s="114"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="68" t="s">
+      <c r="B147" s="109"/>
+      <c r="C147" s="109"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68" t="s">
+      <c r="B148" s="66"/>
+      <c r="C148" s="66" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="27">
-      <c r="A144" s="68">
+    <row r="149" spans="1:3" ht="27">
+      <c r="A149" s="66">
         <v>0</v>
       </c>
-      <c r="B144" s="69" t="s">
+      <c r="B149" s="67" t="s">
         <v>264</v>
       </c>
-      <c r="C144" s="69" t="s">
+      <c r="C149" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="27">
-      <c r="A145" s="68">
+    <row r="150" spans="1:3" ht="27">
+      <c r="A150" s="66">
         <v>1</v>
       </c>
-      <c r="B145" s="69" t="s">
+      <c r="B150" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="C145" s="69" t="s">
+      <c r="C150" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="27">
-      <c r="A146" s="68">
+    <row r="151" spans="1:3" ht="27">
+      <c r="A151" s="66">
         <v>2</v>
       </c>
-      <c r="B146" s="69" t="s">
+      <c r="B151" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="C146" s="69" t="s">
+      <c r="C151" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="27">
-      <c r="A147" s="68">
+    <row r="152" spans="1:3" ht="27">
+      <c r="A152" s="66">
         <v>3</v>
       </c>
-      <c r="B147" s="69" t="s">
+      <c r="B152" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="69" t="s">
+      <c r="C152" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A148" s="68">
+    <row r="153" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A153" s="66">
         <v>4</v>
       </c>
-      <c r="B148" s="71" t="s">
+      <c r="B153" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="C148" s="69" t="s">
+      <c r="C153" s="67" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A149" s="68">
+    <row r="154" spans="1:3" ht="35.25" customHeight="1">
+      <c r="A154" s="66">
         <v>5</v>
       </c>
-      <c r="B149" s="71" t="s">
+      <c r="B154" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="C149" s="69" t="s">
+      <c r="C154" s="67" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="68">
+    <row r="155" spans="1:3" ht="24" customHeight="1">
+      <c r="A155" s="66">
         <v>6</v>
       </c>
-      <c r="B150" s="109" t="s">
+      <c r="B155" s="102" t="s">
         <v>273</v>
       </c>
-      <c r="C150" s="111" t="s">
+      <c r="C155" s="104" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="33" customHeight="1">
-      <c r="A151" s="68">
+    <row r="156" spans="1:3" ht="33" customHeight="1">
+      <c r="A156" s="66">
         <v>7</v>
       </c>
-      <c r="B151" s="110"/>
-      <c r="C151" s="110"/>
-    </row>
-    <row r="152" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A152" s="68">
+      <c r="B156" s="103"/>
+      <c r="C156" s="103"/>
+    </row>
+    <row r="157" spans="1:3" ht="39.75" customHeight="1">
+      <c r="A157" s="66">
         <v>8</v>
       </c>
-      <c r="B152" s="109" t="s">
+      <c r="B157" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="C152" s="111" t="s">
+      <c r="C157" s="104" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="31.5" customHeight="1">
-      <c r="A153" s="68">
+    <row r="158" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A158" s="66">
         <v>9</v>
       </c>
-      <c r="B153" s="110"/>
-      <c r="C153" s="110"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="68">
+      <c r="B158" s="103"/>
+      <c r="C158" s="103"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="66">
         <v>10</v>
       </c>
-      <c r="B154" s="69" t="s">
+      <c r="B159" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="69"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="68">
+      <c r="C159" s="67"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="66">
         <v>11</v>
       </c>
-      <c r="B155" s="69" t="s">
+      <c r="B160" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C155" s="69"/>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="68">
+      <c r="C160" s="67"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="66">
         <v>12</v>
       </c>
-      <c r="B156" s="69" t="s">
+      <c r="B161" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C156" s="69"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="68">
+      <c r="C161" s="67"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="66">
         <v>13</v>
       </c>
-      <c r="B157" s="69" t="s">
+      <c r="B162" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C157" s="69"/>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="68">
+      <c r="C162" s="67"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="66">
         <v>14</v>
       </c>
-      <c r="B158" s="69" t="s">
+      <c r="B163" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C158" s="69"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="68">
+      <c r="C163" s="67"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="66">
         <v>15</v>
       </c>
-      <c r="B159" s="69" t="s">
+      <c r="B164" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C159" s="69"/>
+      <c r="C164" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="B155:B156"/>
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7593,18 +7157,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
@@ -7616,8 +7178,6 @@
       <c r="C2" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
       <c r="F2" s="4" t="s">
         <v>280</v>
       </c>
@@ -7638,8 +7198,6 @@
       <c r="C3" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
       <c r="F3" s="29">
         <v>0</v>
       </c>
@@ -7660,8 +7218,6 @@
       <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
       <c r="F4" s="29">
         <v>1</v>
       </c>
@@ -7682,8 +7238,6 @@
       <c r="C5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
       <c r="F5" s="29">
         <v>2</v>
       </c>
@@ -7704,8 +7258,6 @@
       <c r="C6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
       <c r="F6" s="29">
         <v>3</v>
       </c>
@@ -7726,8 +7278,6 @@
       <c r="C7" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
       <c r="F7" s="29">
         <v>4</v>
       </c>
@@ -7748,8 +7298,6 @@
       <c r="C8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
       <c r="F8" s="29">
         <v>5</v>
       </c>
@@ -7770,8 +7318,6 @@
       <c r="C9" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
       <c r="F9" s="29">
         <v>6</v>
       </c>
@@ -7792,8 +7338,6 @@
       <c r="C10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
       <c r="F10" s="29">
         <v>7</v>
       </c>
@@ -7814,8 +7358,6 @@
       <c r="C11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
       <c r="F11" s="29">
         <v>8</v>
       </c>
@@ -7836,8 +7378,6 @@
       <c r="C12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
       <c r="F12" s="29">
         <v>9</v>
       </c>
@@ -7858,8 +7398,6 @@
       <c r="C13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
       <c r="F13" s="29">
         <v>10</v>
       </c>
@@ -7880,8 +7418,6 @@
       <c r="C14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
       <c r="F14" s="29">
         <v>11</v>
       </c>
@@ -7902,8 +7438,6 @@
       <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
       <c r="F15" s="29">
         <v>12</v>
       </c>
@@ -7924,8 +7458,6 @@
       <c r="C16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
       <c r="F16" s="29">
         <v>13</v>
       </c>
@@ -7946,8 +7478,6 @@
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
       <c r="F17" s="29">
         <v>14</v>
       </c>
@@ -7968,8 +7498,6 @@
       <c r="C18" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
       <c r="F18" s="29">
         <v>15</v>
       </c>
@@ -7981,18 +7509,16 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="112" t="s">
         <v>309</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="118" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="1"/>
+      <c r="F19" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="26" t="s">
@@ -8004,8 +7530,6 @@
       <c r="C20" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
       <c r="F20" s="4" t="s">
         <v>311</v>
       </c>
@@ -8020,14 +7544,12 @@
       <c r="A21" s="5">
         <v>0</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>312</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
       <c r="F21" s="29">
         <v>0</v>
       </c>
@@ -8048,8 +7570,6 @@
       <c r="C22" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
       <c r="F22" s="29">
         <v>1</v>
       </c>
@@ -8070,8 +7590,6 @@
       <c r="C23" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
       <c r="F23" s="29">
         <v>2</v>
       </c>
@@ -8092,8 +7610,6 @@
       <c r="C24" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
       <c r="F24" s="29">
         <v>3</v>
       </c>
@@ -8114,8 +7630,6 @@
       <c r="C25" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
       <c r="F25" s="29">
         <v>4</v>
       </c>
@@ -8136,8 +7650,6 @@
       <c r="C26" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
       <c r="F26" s="29">
         <v>5</v>
       </c>
@@ -8152,14 +7664,12 @@
       <c r="A27" s="5">
         <v>6</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>318</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
       <c r="F27" s="29">
         <v>6</v>
       </c>
@@ -8180,8 +7690,6 @@
       <c r="C28" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
       <c r="F28" s="29">
         <v>7</v>
       </c>
@@ -8202,8 +7710,6 @@
       <c r="C29" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
       <c r="F29" s="29">
         <v>8</v>
       </c>
@@ -8224,8 +7730,6 @@
       <c r="C30" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
       <c r="F30" s="29">
         <v>9</v>
       </c>
@@ -8246,8 +7750,6 @@
       <c r="C31" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
       <c r="F31" s="29">
         <v>10</v>
       </c>
@@ -8268,8 +7770,6 @@
       <c r="C32" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
       <c r="F32" s="29">
         <v>11</v>
       </c>
@@ -8284,14 +7784,12 @@
       <c r="A33" s="5">
         <v>12</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>324</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
       <c r="F33" s="29">
         <v>12</v>
       </c>
@@ -8312,8 +7810,6 @@
       <c r="C34" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
       <c r="F34" s="29">
         <v>13</v>
       </c>
@@ -8334,8 +7830,6 @@
       <c r="C35" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
       <c r="F35" s="29">
         <v>14</v>
       </c>
@@ -8356,8 +7850,6 @@
       <c r="C36" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
       <c r="F36" s="29">
         <v>15</v>
       </c>
@@ -8369,153 +7861,93 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="5"/>
-      <c r="B39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="5"/>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5"/>
-      <c r="B41" s="37"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5"/>
-      <c r="B42" s="37"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5"/>
-      <c r="B43" s="37"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5"/>
-      <c r="B44" s="37"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="5"/>
-      <c r="B45" s="37"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="5"/>
-      <c r="B46" s="38"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="5"/>
-      <c r="B47" s="37"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="5"/>
-      <c r="B48" s="38"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="5"/>
-      <c r="B49" s="38"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="5"/>
-      <c r="B50" s="38"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="5"/>
-      <c r="B51" s="38"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5"/>
-      <c r="B52" s="38"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="5"/>
-      <c r="B53" s="38"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="5"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="7"/>
     </row>
   </sheetData>
@@ -8535,8 +7967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8567,160 +7999,160 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A3" s="101">
+      <c r="A3" s="94">
         <v>10001</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="E3" s="101"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A4" s="101">
+      <c r="A4" s="94">
         <v>10002</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A5" s="101">
+      <c r="A5" s="94">
         <v>10003</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A6" s="101">
+      <c r="A6" s="94">
         <v>10004</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A7" s="101">
+      <c r="A7" s="94">
         <v>10005</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="94" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="101"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A8" s="101">
+      <c r="A8" s="94">
         <v>10006</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="94">
         <v>16384</v>
       </c>
-      <c r="E8" s="101"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="101">
+      <c r="A9" s="94">
         <v>10007</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="94">
         <v>16384</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1">
-      <c r="A10" s="101">
+      <c r="A10" s="94">
         <v>10008</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A12" s="101">
+      <c r="A12" s="94">
         <v>10103</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -8735,10 +8167,10 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="41.25" customHeight="1">
-      <c r="A13" s="101">
+      <c r="A13" s="94">
         <v>10104</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -8753,10 +8185,10 @@
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A14" s="101">
+      <c r="A14" s="94">
         <v>10105</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -8771,24 +8203,24 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="101">
+      <c r="A15" s="94">
         <v>10106</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="104"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="24">
-      <c r="A16" s="101">
+      <c r="A16" s="94">
         <v>10107</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -8797,16 +8229,16 @@
       <c r="D16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="97" t="s">
         <v>150</v>
       </c>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1">
-      <c r="A17" s="101">
+      <c r="A17" s="94">
         <v>10108</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -8815,16 +8247,16 @@
       <c r="D17" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="96" t="s">
         <v>345</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="89.25">
-      <c r="A18" s="101">
+      <c r="A18" s="94">
         <v>10110</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -8833,16 +8265,16 @@
       <c r="D18" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="96" t="s">
         <v>348</v>
       </c>
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="24">
-      <c r="A19" s="101">
+      <c r="A19" s="94">
         <v>10111</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -8851,16 +8283,16 @@
       <c r="D19" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="96" t="s">
         <v>351</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="51">
-      <c r="A20" s="101">
+      <c r="A20" s="94">
         <v>10112</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="94" t="s">
         <v>330</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -8869,142 +8301,142 @@
       <c r="D20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="96" t="s">
         <v>352</v>
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" s="96" customFormat="1" ht="24">
-      <c r="A21" s="101">
+    <row r="21" spans="1:6" ht="24">
+      <c r="A21" s="94">
         <v>10118</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="100" t="s">
         <v>354</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="108"/>
-    </row>
-    <row r="22" spans="1:6" s="96" customFormat="1" ht="72">
-      <c r="A22" s="101">
+      <c r="F21" s="101"/>
+    </row>
+    <row r="22" spans="1:6" ht="72">
+      <c r="A22" s="94">
         <v>10119</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="97" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="108"/>
-    </row>
-    <row r="23" spans="1:6" s="96" customFormat="1">
-      <c r="A23" s="101">
+      <c r="F22" s="101"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="94">
         <v>10120</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="100" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="108"/>
-    </row>
-    <row r="24" spans="1:6" s="96" customFormat="1" ht="24">
-      <c r="A24" s="101">
+      <c r="E23" s="96"/>
+      <c r="F23" s="101"/>
+    </row>
+    <row r="24" spans="1:6" ht="24">
+      <c r="A24" s="94">
         <v>10121</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="99" t="s">
         <v>357</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="97" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="108"/>
-    </row>
-    <row r="25" spans="1:6" s="96" customFormat="1" ht="24">
-      <c r="A25" s="101">
+      <c r="F24" s="101"/>
+    </row>
+    <row r="25" spans="1:6" ht="24">
+      <c r="A25" s="94">
         <v>10122</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="100" t="s">
         <v>358</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="97" t="s">
         <v>359</v>
       </c>
-      <c r="F25" s="108"/>
-    </row>
-    <row r="26" spans="1:6" s="96" customFormat="1" ht="24">
-      <c r="A26" s="101">
+      <c r="F25" s="101"/>
+    </row>
+    <row r="26" spans="1:6" ht="24">
+      <c r="A26" s="94">
         <v>10123</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="108"/>
-    </row>
-    <row r="27" spans="1:6" s="96" customFormat="1" ht="25.5">
-      <c r="A27" s="101">
+      <c r="F26" s="101"/>
+    </row>
+    <row r="27" spans="1:6" ht="25.5">
+      <c r="A27" s="94">
         <v>10124</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="108"/>
-    </row>
-    <row r="28" spans="1:6" s="96" customFormat="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="100"/>
+      <c r="F27" s="101"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="25.5">
       <c r="A31" s="11" t="s">
@@ -9027,20 +8459,20 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="107" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="113"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
     </row>
     <row r="33" spans="1:6" ht="66" customHeight="1">
-      <c r="A33" s="101">
+      <c r="A33" s="94">
         <v>15201</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -9049,14 +8481,14 @@
       <c r="D33" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="E33" s="103"/>
+      <c r="E33" s="96"/>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" ht="55.5" customHeight="1">
-      <c r="A34" s="101">
+      <c r="A34" s="94">
         <v>15202</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C34" s="21" t="s">
@@ -9065,14 +8497,14 @@
       <c r="D34" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="E34" s="103"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="51">
-      <c r="A35" s="101">
+      <c r="A35" s="94">
         <v>15203</v>
       </c>
-      <c r="B35" s="103" t="s">
+      <c r="B35" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -9081,28 +8513,28 @@
       <c r="D35" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E35" s="103"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="101">
+      <c r="A36" s="94">
         <v>15204</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="103"/>
+      <c r="E36" s="96"/>
       <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="101">
+      <c r="A37" s="94">
         <v>15205</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="21" t="s">
@@ -9111,16 +8543,16 @@
       <c r="D37" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="96" t="s">
         <v>374</v>
       </c>
       <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="101">
+      <c r="A38" s="94">
         <v>15206</v>
       </c>
-      <c r="B38" s="103" t="s">
+      <c r="B38" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -9129,16 +8561,16 @@
       <c r="D38" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="103" t="s">
+      <c r="E38" s="96" t="s">
         <v>375</v>
       </c>
       <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101">
+      <c r="A39" s="94">
         <v>15207</v>
       </c>
-      <c r="B39" s="103" t="s">
+      <c r="B39" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -9147,16 +8579,16 @@
       <c r="D39" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="103" t="s">
+      <c r="E39" s="96" t="s">
         <v>377</v>
       </c>
       <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101">
+      <c r="A40" s="94">
         <v>15208</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="21" t="s">
@@ -9165,16 +8597,16 @@
       <c r="D40" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="96" t="s">
         <v>380</v>
       </c>
       <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="101">
+      <c r="A41" s="94">
         <v>15209</v>
       </c>
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="21" t="s">
@@ -9183,16 +8615,16 @@
       <c r="D41" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="103" t="s">
+      <c r="E41" s="96" t="s">
         <v>382</v>
       </c>
       <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="101">
+      <c r="A42" s="94">
         <v>15210</v>
       </c>
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -9201,16 +8633,16 @@
       <c r="D42" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="103" t="s">
+      <c r="E42" s="96" t="s">
         <v>382</v>
       </c>
       <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="104">
+      <c r="A43" s="97">
         <v>15211</v>
       </c>
-      <c r="B43" s="103" t="s">
+      <c r="B43" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -9223,10 +8655,10 @@
       <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="104">
+      <c r="A44" s="97">
         <v>15212</v>
       </c>
-      <c r="B44" s="103" t="s">
+      <c r="B44" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="23" t="s">
@@ -9239,10 +8671,10 @@
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" ht="24">
-      <c r="A45" s="101">
+      <c r="A45" s="94">
         <v>15213</v>
       </c>
-      <c r="B45" s="103" t="s">
+      <c r="B45" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -9251,16 +8683,16 @@
       <c r="D45" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="96" t="s">
         <v>184</v>
       </c>
       <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" ht="24">
-      <c r="A46" s="101">
+      <c r="A46" s="94">
         <v>15214</v>
       </c>
-      <c r="B46" s="103" t="s">
+      <c r="B46" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -9269,16 +8701,16 @@
       <c r="D46" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E46" s="96" t="s">
         <v>184</v>
       </c>
       <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="101">
+      <c r="A47" s="94">
         <v>15215</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -9287,14 +8719,14 @@
       <c r="D47" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E47" s="103"/>
+      <c r="E47" s="96"/>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="101">
+      <c r="A48" s="94">
         <v>15216</v>
       </c>
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C48" s="23" t="s">
@@ -9303,50 +8735,50 @@
       <c r="D48" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="103"/>
+      <c r="E48" s="96"/>
       <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="101">
+      <c r="A49" s="94">
         <v>15217</v>
       </c>
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="D49" s="103" t="s">
+      <c r="D49" s="96" t="s">
         <v>215</v>
       </c>
-      <c r="E49" s="103" t="s">
+      <c r="E49" s="96" t="s">
         <v>184</v>
       </c>
       <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="101">
+      <c r="A50" s="94">
         <v>15218</v>
       </c>
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="D50" s="103" t="s">
+      <c r="D50" s="96" t="s">
         <v>217</v>
       </c>
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="96" t="s">
         <v>184</v>
       </c>
       <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="104">
+      <c r="A51" s="97">
         <v>15219</v>
       </c>
-      <c r="B51" s="103" t="s">
+      <c r="B51" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -9359,10 +8791,10 @@
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="104">
+      <c r="A52" s="97">
         <v>15220</v>
       </c>
-      <c r="B52" s="103" t="s">
+      <c r="B52" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C52" s="23" t="s">
@@ -9375,10 +8807,10 @@
       <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="104">
+      <c r="A53" s="97">
         <v>15221</v>
       </c>
-      <c r="B53" s="103" t="s">
+      <c r="B53" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -9391,11 +8823,11 @@
       <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="101"/>
-      <c r="B54" s="103"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="21"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="103"/>
+      <c r="E54" s="96"/>
       <c r="F54" s="19"/>
     </row>
   </sheetData>
@@ -9427,16 +8859,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="110" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="111" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="116"/>
+      <c r="F1" s="111"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
@@ -9449,7 +8880,6 @@
       <c r="C2" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D2" s="96"/>
       <c r="E2" s="4" t="s">
         <v>401</v>
       </c>
@@ -9470,7 +8900,6 @@
       <c r="C3" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="96"/>
       <c r="E3" s="8">
         <v>0</v>
       </c>
@@ -9491,7 +8920,6 @@
       <c r="C4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="96"/>
       <c r="E4" s="8">
         <v>1</v>
       </c>
@@ -9512,7 +8940,6 @@
       <c r="C5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D5" s="96"/>
       <c r="E5" s="8">
         <v>2</v>
       </c>
@@ -9533,7 +8960,6 @@
       <c r="C6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D6" s="96"/>
       <c r="E6" s="8">
         <v>3</v>
       </c>
@@ -9554,7 +8980,6 @@
       <c r="C7" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="96"/>
       <c r="E7" s="8">
         <v>4</v>
       </c>
@@ -9575,7 +9000,6 @@
       <c r="C8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D8" s="96"/>
       <c r="E8" s="8">
         <v>5</v>
       </c>
@@ -9596,7 +9020,6 @@
       <c r="C9" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D9" s="96"/>
       <c r="E9" s="8">
         <v>6</v>
       </c>
@@ -9617,7 +9040,6 @@
       <c r="C10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="96"/>
       <c r="E10" s="8">
         <v>7</v>
       </c>
@@ -9638,7 +9060,6 @@
       <c r="C11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D11" s="96"/>
       <c r="E11" s="8">
         <v>8</v>
       </c>
@@ -9659,7 +9080,6 @@
       <c r="C12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="96"/>
       <c r="E12" s="8">
         <v>9</v>
       </c>
@@ -9680,7 +9100,6 @@
       <c r="C13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D13" s="96"/>
       <c r="E13" s="8">
         <v>10</v>
       </c>
@@ -9701,7 +9120,6 @@
       <c r="C14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="96"/>
       <c r="E14" s="8">
         <v>11</v>
       </c>
@@ -9722,7 +9140,6 @@
       <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="96"/>
       <c r="E15" s="8">
         <v>12</v>
       </c>
@@ -9743,7 +9160,6 @@
       <c r="C16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="96"/>
       <c r="E16" s="8">
         <v>13</v>
       </c>
@@ -9764,7 +9180,6 @@
       <c r="C17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="96"/>
       <c r="E17" s="8">
         <v>14</v>
       </c>
@@ -9785,7 +9200,6 @@
       <c r="C18" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="96"/>
       <c r="E18" s="8">
         <v>15</v>
       </c>
